--- a/mapping/BAO_OBI.xlsx
+++ b/mapping/BAO_OBI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="564">
   <si>
     <t>BAO_IRI</t>
   </si>
@@ -28,9 +28,15 @@
     <t>OBI_DESC</t>
   </si>
   <si>
+    <t>OBI_DEF</t>
+  </si>
+  <si>
     <t>http://www.w3.org/2002/07/owl#Thing</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_23367</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_9606</t>
   </si>
   <si>
@@ -58,6 +64,12 @@
     <t>http://purl.obolibrary.org/obo/PATO_0001710</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_17347</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_23965</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_25078</t>
   </si>
   <si>
@@ -106,9 +118,6 @@
     <t>http://purl.obolibrary.org/obo/NCBITaxon_10376</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCBITaxon_11103</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_11676</t>
   </si>
   <si>
@@ -223,16 +232,43 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_33893</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000269</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_35224</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_59132</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_50904</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_17891</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_22695</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003116</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002929</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_50904</t>
+    <t>http://purl.obolibrary.org/obo/CHEBI_33284</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_35225</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_37958</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_46787</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_60809</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_53000</t>
@@ -247,7 +283,10 @@
     <t>http://purl.obolibrary.org/obo/DOID_162</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/DOID_417</t>
+    <t>http://purl.obolibrary.org/obo/DOID_0080544</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DOID_0080545</t>
   </si>
   <si>
     <t>http://www.bioassayontology.org/bao#BAO_0003117</t>
@@ -262,16 +301,19 @@
     <t>http://purl.obolibrary.org/obo/PATO_0000411</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000190</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000196</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000011</t>
   </si>
   <si>
     <t>http://www.bioassayontology.org/bao#BAO_0003043</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0003116</t>
-  </si>
-  <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0000587</t>
+    <t>http://www.bioassayontology.org/bao#BAO_0003064</t>
   </si>
   <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000175</t>
@@ -280,12 +322,12 @@
     <t>http://www.bioassayontology.org/bao#BAO_0000450</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000088</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002989</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0000114</t>
-  </si>
-  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000134</t>
   </si>
   <si>
@@ -301,12 +343,21 @@
     <t>http://www.bioassayontology.org/bao#BAO_0000551</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000270</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000558</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000582</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000279</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000315</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000322</t>
   </si>
   <si>
@@ -319,6 +370,9 @@
     <t>http://www.bioassayontology.org/bao#BAO_0000451</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000514</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000659</t>
   </si>
   <si>
@@ -328,6 +382,9 @@
     <t>http://www.bioassayontology.org/bao#BAO_0190002</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0000652</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000694</t>
   </si>
   <si>
@@ -343,36 +400,36 @@
     <t>http://www.bioassayontology.org/bao#BAO_0000924</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0001260</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002038</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0002080</t>
-  </si>
-  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0190003</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002172</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002173</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0002174</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002231</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0002338</t>
-  </si>
-  <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0002361</t>
-  </si>
-  <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0002432</t>
-  </si>
-  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002433</t>
   </si>
   <si>
     <t>http://www.bioassayontology.org/bao#BAO_0002508</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0190001</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0003006</t>
   </si>
   <si>
@@ -388,21 +445,27 @@
     <t>http://www.bioassayontology.org/bao#BAO_0002931</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0040042</t>
+  </si>
+  <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003009</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0003011</t>
   </si>
   <si>
     <t>http://www.bioassayontology.org/bao#BAO_0003070</t>
   </si>
   <si>
+    <t>http://www.bioassayontology.org/bao#BAO_0003073</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0003119</t>
   </si>
   <si>
     <t>http://www.bioassayontology.org/bao#BAO_0010015</t>
   </si>
   <si>
-    <t>http://www.bioassayontology.org/bao#BAO_0010020</t>
-  </si>
-  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0010035</t>
   </si>
   <si>
@@ -487,6 +550,9 @@
     <t>{'iri': 'http://www.w3.org/2002/07/owl#Thing'}</t>
   </si>
   <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_23367'}</t>
+  </si>
+  <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/NCBITaxon_9606'}</t>
   </si>
   <si>
@@ -514,6 +580,12 @@
     <t>{'iri': 'http://purl.obolibrary.org/obo/PATO_0001710'}</t>
   </si>
   <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_17347'}</t>
+  </si>
+  <si>
+    <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_23965'}</t>
+  </si>
+  <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/CHEBI_25078'}</t>
   </si>
   <si>
@@ -562,9 +634,6 @@
     <t>{'iri': 'http://purl.obolibrary.org/obo/NCBITaxon_10376'}</t>
   </si>
   <si>
-    <t>{'iri': 'http://purl.obolibrary.org/obo/NCBITaxon_11103'}</t>
-  </si>
-  <si>
     <t>{'iri': 'http://purl.obolibrary.org/obo/NCBITaxon_11676'}</t>
   </si>
   <si>
@@ -679,16 +748,43 @@
     <t>{'label': 'reagent', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_33893'}</t>
   </si>
   <si>
+    <t>{'label': 'DNA', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000269'}</t>
+  </si>
+  <si>
+    <t>{'label': 'effector', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_35224'}</t>
+  </si>
+  <si>
     <t>{'label': 'antigen', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_59132'}</t>
   </si>
   <si>
+    <t>{'label': 'allergen', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_50904'}</t>
+  </si>
+  <si>
     <t>{'label': 'donor', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_17891'}</t>
   </si>
   <si>
+    <t>{'label': 'base', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_22695'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material entity', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003116'}</t>
+  </si>
+  <si>
     <t>{'label': 'role', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002929'}</t>
   </si>
   <si>
-    <t>{'label': 'allergen', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_50904'}</t>
+    <t>{'label': 'nutrient', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_33284'}</t>
+  </si>
+  <si>
+    <t>{'label': 'buffer', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_35225'}</t>
+  </si>
+  <si>
+    <t>{'label': 'dye', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_37958'}</t>
+  </si>
+  <si>
+    <t>{'label': 'solvent', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_46787'}</t>
+  </si>
+  <si>
+    <t>{'label': 'adjuvant', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_60809'}</t>
   </si>
   <si>
     <t>{'label': 'epitope', 'prefLabel': None, 'altLabel': None, 'name': 'CHEBI_53000'}</t>
@@ -703,7 +799,10 @@
     <t>{'label': 'cancer', 'prefLabel': None, 'altLabel': None, 'name': 'DOID_162'}</t>
   </si>
   <si>
-    <t>{'label': 'autoimmune disease', 'prefLabel': None, 'altLabel': None, 'name': 'DOID_417'}</t>
+    <t>{'label': 'hyper', 'prefLabel': None, 'altLabel': None, 'name': 'DOID_0080544'}</t>
+  </si>
+  <si>
+    <t>{'label': 'hyper', 'prefLabel': None, 'altLabel': None, 'name': 'DOID_0080545'}</t>
   </si>
   <si>
     <t>{'label': 'function', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003117'}</t>
@@ -718,16 +817,19 @@
     <t>{'label': 'circular', 'prefLabel': None, 'altLabel': None, 'name': 'PATO_0000411'}</t>
   </si>
   <si>
+    <t>{'label': 'ratio', 'prefLabel': None, 'altLabel': None, 'name': 'UO_0000190'}</t>
+  </si>
+  <si>
+    <t>{'label': 'pH', 'prefLabel': None, 'altLabel': None, 'name': 'UO_0000196'}</t>
+  </si>
+  <si>
     <t>{'label': 'nucleic acid', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000011'}</t>
   </si>
   <si>
     <t>{'label': 'molecular entity', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003043'}</t>
   </si>
   <si>
-    <t>{'label': 'material entity', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003116'}</t>
-  </si>
-  <si>
-    <t>{'label': 'binding constant', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000587'}</t>
+    <t>{'label': 'target', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003064'}</t>
   </si>
   <si>
     <t>{'label': 'protein', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000175'}</t>
@@ -736,12 +838,12 @@
     <t>{'label': 'fluorescence microscopy', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000450'}</t>
   </si>
   <si>
+    <t>{'label': 'methylated', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000088'}</t>
+  </si>
+  <si>
     <t>{'label': 'binding assay', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002989'}</t>
   </si>
   <si>
-    <t>{'label': 'culture medium', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000114'}</t>
-  </si>
-  <si>
     <t>{'label': 'ELISA', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000134'}</t>
   </si>
   <si>
@@ -757,12 +859,21 @@
     <t>{'label': 'organism', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000551'}</t>
   </si>
   <si>
+    <t>{'label': 'RNA', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000270'}</t>
+  </si>
+  <si>
     <t>{'label': 'manufacturer role', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000558'}</t>
   </si>
   <si>
+    <t>{'label': 'gene', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000582'}</t>
+  </si>
+  <si>
     <t>{'label': 'enzyme', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000279'}</t>
   </si>
   <si>
+    <t>{'label': 'cDNA', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000315'}</t>
+  </si>
+  <si>
     <t>{'label': 'miRNA', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000322'}</t>
   </si>
   <si>
@@ -775,6 +886,9 @@
     <t>{'label': 'optical microscopy', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000451'}</t>
   </si>
   <si>
+    <t>{'label': 'array', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000514'}</t>
+  </si>
+  <si>
     <t>{'label': 'metazoa', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000659'}</t>
   </si>
   <si>
@@ -784,6 +898,9 @@
     <t>{'label': 'temperature unit', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0190002'}</t>
   </si>
   <si>
+    <t>{'label': 'protease', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000652'}</t>
+  </si>
+  <si>
     <t>{'label': 'tris', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000694'}</t>
   </si>
   <si>
@@ -799,36 +916,36 @@
     <t>{'label': 'Glucose', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0000924'}</t>
   </si>
   <si>
+    <t>{'label': 'T', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0001260'}</t>
+  </si>
+  <si>
     <t>{'label': 'conformation', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002038'}</t>
   </si>
   <si>
-    <t>{'label': 'polymerase chain reaction', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002080'}</t>
-  </si>
-  <si>
     <t>{'label': 'time unit', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0190003'}</t>
   </si>
   <si>
+    <t>{'label': 'log', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002172'}</t>
+  </si>
+  <si>
     <t>{'label': 'mean', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002173'}</t>
   </si>
   <si>
+    <t>{'label': 'median', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002174'}</t>
+  </si>
+  <si>
     <t>{'label': 'sequence alignment', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002231'}</t>
   </si>
   <si>
-    <t>{'label': 'fractional factorial design', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002338'}</t>
-  </si>
-  <si>
-    <t>{'label': 'network analysis', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002361'}</t>
-  </si>
-  <si>
-    <t>{'label': 'gene knock in', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002432'}</t>
-  </si>
-  <si>
     <t>{'label': 'gene knockdown', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002433'}</t>
   </si>
   <si>
     <t>{'label': 'immunoprecipitation', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002508'}</t>
   </si>
   <si>
+    <t>{'label': 'ratio', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0190001'}</t>
+  </si>
+  <si>
     <t>{'label': 'reporter gene assay', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003006'}</t>
   </si>
   <si>
@@ -844,21 +961,27 @@
     <t>{'label': 'cell line cell', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0002931'}</t>
   </si>
   <si>
+    <t>{'label': 'liquid chromatography-tandem mass spectrometry', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0040042'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell viability assay', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003009'}</t>
+  </si>
+  <si>
     <t>{'label': 'KINOMEScan assay', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003011'}</t>
   </si>
   <si>
     <t>{'label': 'extract', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003070'}</t>
   </si>
   <si>
+    <t>{'label': 'synthetic', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003073'}</t>
+  </si>
+  <si>
     <t>{'label': 'software', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0003119'}</t>
   </si>
   <si>
     <t>{'label': 'microscope slide', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0010015'}</t>
   </si>
   <si>
-    <t>{'label': 'agarose gel', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0010020'}</t>
-  </si>
-  <si>
     <t>{'label': 'ChIP-seq assay', 'prefLabel': None, 'altLabel': None, 'name': 'BAO_0010035'}</t>
   </si>
   <si>
@@ -943,31 +1066,58 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000086</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_1110034</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0400103</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1110084</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000237</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1110201</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_1110087</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/IAO_8000001</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000023</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_1110201</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_1110001</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0000204</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302731</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000250</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302732</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1110092</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_1110193</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_1110023</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OGMS_0000031</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0000278</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_1110053</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_1110054</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0500013</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000034</t>
@@ -982,16 +1132,16 @@
     <t>http://purl.obolibrary.org/obo/SO_0000988</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000054</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000110</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_33696</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_23367</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001144</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0000444</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/PR_000000001</t>
@@ -1000,12 +1150,12 @@
     <t>http://purl.obolibrary.org/obo/CHMO_0000087</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302847</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0001146</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000079</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000661</t>
   </si>
   <si>
@@ -1018,12 +1168,21 @@
     <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0666666</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000571</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000118</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000427</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000164</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/SO_0000276</t>
   </si>
   <si>
@@ -1036,12 +1195,18 @@
     <t>http://purl.obolibrary.org/obo/CHMO_0000102</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001069</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_33208</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000522</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600056</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_9754</t>
   </si>
   <si>
@@ -1057,24 +1222,21 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_17234</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000415</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0200060</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200141</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000679</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0200119</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0002567</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0500016</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0200080</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001149</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0002625</t>
   </si>
   <si>
@@ -1090,21 +1252,27 @@
     <t>http://purl.obolibrary.org/obo/OBI_0002964</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0000701</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0003583</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0002963</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000423</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0100065</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000010</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/OBI_0400170</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000439</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000716</t>
   </si>
   <si>
@@ -1177,16 +1345,43 @@
     <t>{'altLabel': 'reagent'}</t>
   </si>
   <si>
+    <t>{'label': 'DNA'}</t>
+  </si>
+  <si>
+    <t>{'label': 'effector'}</t>
+  </si>
+  <si>
     <t>{'label': 'antigen'}</t>
   </si>
   <si>
+    <t>{'label': 'allergen'}</t>
+  </si>
+  <si>
     <t>{'label': 'donor'}</t>
   </si>
   <si>
+    <t>{'label': 'base'}</t>
+  </si>
+  <si>
+    <t>{'label': 'material entity', 'prefLabel': 'material entity'}</t>
+  </si>
+  <si>
     <t>{'label': 'role', 'prefLabel': 'role'}</t>
   </si>
   <si>
-    <t>{'label': 'allergen'}</t>
+    <t>{'label': 'nutrient'}</t>
+  </si>
+  <si>
+    <t>{'label': 'buffer'}</t>
+  </si>
+  <si>
+    <t>{'label': 'dye'}</t>
+  </si>
+  <si>
+    <t>{'label': 'solvent'}</t>
+  </si>
+  <si>
+    <t>{'label': 'adjuvant'}</t>
   </si>
   <si>
     <t>{'label': 'epitope'}</t>
@@ -1201,7 +1396,7 @@
     <t>{'label': 'cancer'}</t>
   </si>
   <si>
-    <t>{'label': 'autoimmune disease'}</t>
+    <t>{'label': 'hyper'}</t>
   </si>
   <si>
     <t>{'label': 'function', 'prefLabel': 'function'}</t>
@@ -1216,16 +1411,19 @@
     <t>{'label': 'circular'}</t>
   </si>
   <si>
+    <t>{'label': 'ratio'}</t>
+  </si>
+  <si>
+    <t>{'label': 'pH'}</t>
+  </si>
+  <si>
     <t>{'label': 'nucleic acid'}</t>
   </si>
   <si>
     <t>{'label': 'molecular entity', 'prefLabel': 'molecular entity'}</t>
   </si>
   <si>
-    <t>{'label': 'material entity', 'prefLabel': 'material entity'}</t>
-  </si>
-  <si>
-    <t>{'label': 'binding constant'}</t>
+    <t>{'label': 'target'}</t>
   </si>
   <si>
     <t>{'label': 'protein'}</t>
@@ -1234,12 +1432,12 @@
     <t>{'label': 'fluorescence microscopy'}</t>
   </si>
   <si>
+    <t>{'label': 'methylated'}</t>
+  </si>
+  <si>
     <t>{'label': 'binding assay'}</t>
   </si>
   <si>
-    <t>{'label': 'culture medium'}</t>
-  </si>
-  <si>
     <t>{'label': 'ELISA'}</t>
   </si>
   <si>
@@ -1255,12 +1453,21 @@
     <t>{'label': 'organism', 'prefLabel': 'organism'}</t>
   </si>
   <si>
+    <t>{'label': 'RNA'}</t>
+  </si>
+  <si>
     <t>{'label': 'manufacturer role', 'prefLabel': 'manufacturer role'}</t>
   </si>
   <si>
+    <t>{'label': 'gene'}</t>
+  </si>
+  <si>
     <t>{'label': 'enzyme'}</t>
   </si>
   <si>
+    <t>{'label': 'cDNA'}</t>
+  </si>
+  <si>
     <t>{'label': 'miRNA'}</t>
   </si>
   <si>
@@ -1273,6 +1480,9 @@
     <t>{'label': 'optical microscopy'}</t>
   </si>
   <si>
+    <t>{'label': 'array'}</t>
+  </si>
+  <si>
     <t>{'label': 'metazoa'}</t>
   </si>
   <si>
@@ -1282,6 +1492,9 @@
     <t>{'label': 'temperature unit'}</t>
   </si>
   <si>
+    <t>{'label': 'protease'}</t>
+  </si>
+  <si>
     <t>{'label': 'tris'}</t>
   </si>
   <si>
@@ -1297,30 +1510,27 @@
     <t>{'label': 'Glucose'}</t>
   </si>
   <si>
+    <t>{'label': 'T'}</t>
+  </si>
+  <si>
     <t>{'altLabel': 'conformation'}</t>
   </si>
   <si>
-    <t>{'label': 'polymerase chain reaction'}</t>
-  </si>
-  <si>
     <t>{'label': 'time unit'}</t>
   </si>
   <si>
+    <t>{'label': 'log'}</t>
+  </si>
+  <si>
     <t>{'label': 'mean'}</t>
   </si>
   <si>
+    <t>{'label': 'median'}</t>
+  </si>
+  <si>
     <t>{'label': 'sequence alignment'}</t>
   </si>
   <si>
-    <t>{'label': 'fractional factorial design'}</t>
-  </si>
-  <si>
-    <t>{'label': 'network analysis'}</t>
-  </si>
-  <si>
-    <t>{'label': 'gene knock in'}</t>
-  </si>
-  <si>
     <t>{'label': 'gene knockdown'}</t>
   </si>
   <si>
@@ -1339,21 +1549,27 @@
     <t>{'label': 'cell line cell'}</t>
   </si>
   <si>
+    <t>{'label': 'liquid chromatography-tandem mass spectrometry'}</t>
+  </si>
+  <si>
+    <t>{'label': 'cell viability assay'}</t>
+  </si>
+  <si>
     <t>{'label': 'KINOMEScan assay'}</t>
   </si>
   <si>
     <t>{'label': 'extract'}</t>
   </si>
   <si>
+    <t>{'label': 'synthetic'}</t>
+  </si>
+  <si>
     <t>{'label': 'software', 'prefLabel': 'software'}</t>
   </si>
   <si>
     <t>{'label': 'microscope slide'}</t>
   </si>
   <si>
-    <t>{'label': 'agarose gel'}</t>
-  </si>
-  <si>
     <t>{'label': 'ChIP-seq assay'}</t>
   </si>
   <si>
@@ -1433,6 +1649,63 @@
   </si>
   <si>
     <t>{'label': 'solid state laser'}</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Any constitutionally or isotopically distinct atom, molecule, ion, ion pair, radical, radical ion, complex, conformer etc., identifiable as a separately distinguishable entity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['A member of the the species Homo sapiens. [Allotrope]']</t>
+  </si>
+  <si>
+    <t>["A 3-D extent quality inhering in a bearer by virtue of the bearer's amount of 3-dimensional space it occupies."]</t>
+  </si>
+  <si>
+    <t>['A 1-D extent quality which is equal to the distance between two points. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's physical magnitude. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['An EM radiation quality in which the EM radiation is within the fiat range of the spectrum visible deemed to be light. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A quality of a single physical entity inhering in the bearer by virtue of the bearer's size or shape or structure. [PATO]"]</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's relative position, shape, arrangements and connectivity of an material entity's various parts; the pattern underlying its form. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A quality that inheres in an entire organism or part of an organism. [PATO]']</t>
+  </si>
+  <si>
+    <t>["A size quality inhering in an bearer by virtue of the bearer's extension in three dimensions. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['A role inhering in a biological or chemical entity that is intended to be applied in a scientific technique to participate (or have molecular components that participate) in a chemical reaction that facilitates the generation of data about some entity distinct from the bearer, or the generation of some specified material output distinct from the bearer. [OBI]']</t>
+  </si>
+  <si>
+    <t>['A material entity is an independent continuant that has some portion of matter as proper or improper continuant part. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be and b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A function is a disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A material entity that is an individual living system, such as animal, plant, bacteria or virus, that is capable of replicating or reproducing, growth and maintenance in the right environment. An organism may be unicellular or made up, like humans, of many billions of cells divided into specialized tissues and organs. [OBI]']</t>
+  </si>
+  <si>
+    <t>['Manufacturer role is a role which inheres in a person or organization and which is realized by a manufacturing process. [OBI]']</t>
+  </si>
+  <si>
+    <t>['Software is a plan specification composed of a series of instructions that can be interpreted by or directly executed by a processing unit. [IAO]']</t>
   </si>
 </sst>
 </file>
@@ -1803,13 +2076,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1822,2589 +2095,3448 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>178</v>
+      </c>
+      <c r="F3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>180</v>
+      </c>
+      <c r="F5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>181</v>
+      </c>
+      <c r="F6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>183</v>
+      </c>
+      <c r="F8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>184</v>
+      </c>
+      <c r="F9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>185</v>
+      </c>
+      <c r="F10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>186</v>
+      </c>
+      <c r="F11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="F13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>189</v>
+      </c>
+      <c r="F14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>190</v>
+      </c>
+      <c r="F15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>191</v>
+      </c>
+      <c r="F16" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>193</v>
+      </c>
+      <c r="F18" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>194</v>
+      </c>
+      <c r="F19" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>195</v>
+      </c>
+      <c r="F20" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>196</v>
+      </c>
+      <c r="F21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>197</v>
+      </c>
+      <c r="F22" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>199</v>
+      </c>
+      <c r="F24" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="F25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="F26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F27" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="F28" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>204</v>
+      </c>
+      <c r="F29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>205</v>
+      </c>
+      <c r="F30" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F31" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F32" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>208</v>
+      </c>
+      <c r="F33" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="F34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>210</v>
+      </c>
+      <c r="F35" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>211</v>
+      </c>
+      <c r="F36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>212</v>
+      </c>
+      <c r="F37" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>213</v>
+      </c>
+      <c r="F38" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>214</v>
+      </c>
+      <c r="F39" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>215</v>
+      </c>
+      <c r="F40" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>216</v>
+      </c>
+      <c r="F41" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>217</v>
+      </c>
+      <c r="F42" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>218</v>
+      </c>
+      <c r="F43" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>219</v>
+      </c>
+      <c r="F44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>220</v>
+      </c>
+      <c r="F45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>221</v>
+      </c>
+      <c r="F46" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>222</v>
+      </c>
+      <c r="F47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>223</v>
+      </c>
+      <c r="F48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>224</v>
+      </c>
+      <c r="F49" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>225</v>
+      </c>
+      <c r="F50" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>226</v>
+      </c>
+      <c r="F51" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>227</v>
+      </c>
+      <c r="F52" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>228</v>
+      </c>
+      <c r="F53" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>229</v>
+      </c>
+      <c r="F54" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>230</v>
+      </c>
+      <c r="F55" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>231</v>
+      </c>
+      <c r="F56" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>232</v>
+      </c>
+      <c r="F57" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>233</v>
+      </c>
+      <c r="F58" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>234</v>
+      </c>
+      <c r="F59" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>235</v>
+      </c>
+      <c r="F60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>236</v>
+      </c>
+      <c r="F61" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>237</v>
+      </c>
+      <c r="F62" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F63" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>239</v>
+      </c>
+      <c r="F64" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>240</v>
+      </c>
+      <c r="F65" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>241</v>
+      </c>
+      <c r="F66" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>242</v>
+      </c>
+      <c r="F67" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="E68" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>442</v>
+      </c>
+      <c r="F68" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="E69" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>443</v>
+      </c>
+      <c r="F69" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="E70" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>444</v>
+      </c>
+      <c r="F70" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="E71" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>445</v>
+      </c>
+      <c r="F71" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="E72" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>446</v>
+      </c>
+      <c r="F72" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="E73" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>447</v>
+      </c>
+      <c r="F73" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="E74" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>448</v>
+      </c>
+      <c r="F74" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="E75" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>449</v>
+      </c>
+      <c r="F75" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="E76" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>450</v>
+      </c>
+      <c r="F76" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="E77" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>451</v>
+      </c>
+      <c r="F77" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="E78" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>452</v>
+      </c>
+      <c r="F78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="E79" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>453</v>
+      </c>
+      <c r="F79" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="E80" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>454</v>
+      </c>
+      <c r="F80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="E81" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>455</v>
+      </c>
+      <c r="F81" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="E82" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>456</v>
+      </c>
+      <c r="F82" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="E83" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>457</v>
+      </c>
+      <c r="F83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="E84" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>458</v>
+      </c>
+      <c r="F84" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="E85" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>459</v>
+      </c>
+      <c r="F85" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="E86" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>460</v>
+      </c>
+      <c r="F86" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="E87" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>460</v>
+      </c>
+      <c r="F87" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="E88" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>461</v>
+      </c>
+      <c r="F88" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="E89" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>462</v>
+      </c>
+      <c r="F89" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>66</v>
+        <v>370</v>
       </c>
       <c r="E90" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>463</v>
+      </c>
+      <c r="F90" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="E91" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>464</v>
+      </c>
+      <c r="F91" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="E92" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>465</v>
+      </c>
+      <c r="F92" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="E93" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>466</v>
+      </c>
+      <c r="F93" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="E94" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>467</v>
+      </c>
+      <c r="F94" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>468</v>
+      </c>
+      <c r="F95" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="E96" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>469</v>
+      </c>
+      <c r="F96" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="E97" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>470</v>
+      </c>
+      <c r="F97" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="E98" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>471</v>
+      </c>
+      <c r="F98" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="E99" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>472</v>
+      </c>
+      <c r="F99" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="E100" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>473</v>
+      </c>
+      <c r="F100" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="E101" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>474</v>
+      </c>
+      <c r="F101" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="E102" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>475</v>
+      </c>
+      <c r="F102" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>343</v>
+        <v>69</v>
       </c>
       <c r="E103" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>476</v>
+      </c>
+      <c r="F103" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="E104" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>477</v>
+      </c>
+      <c r="F104" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="E105" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>478</v>
+      </c>
+      <c r="F105" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="E106" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>479</v>
+      </c>
+      <c r="F106" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="E107" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>480</v>
+      </c>
+      <c r="F107" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="E108" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>481</v>
+      </c>
+      <c r="F108" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>64</v>
+        <v>387</v>
       </c>
       <c r="E109" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>482</v>
+      </c>
+      <c r="F109" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="E110" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>483</v>
+      </c>
+      <c r="F110" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="E111" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>484</v>
+      </c>
+      <c r="F111" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="E112" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>485</v>
+      </c>
+      <c r="F112" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="E113" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>486</v>
+      </c>
+      <c r="F113" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="E114" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>487</v>
+      </c>
+      <c r="F114" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="E115" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>488</v>
+      </c>
+      <c r="F115" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="E116" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>489</v>
+      </c>
+      <c r="F116" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="E117" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>490</v>
+      </c>
+      <c r="F117" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>356</v>
+        <v>68</v>
       </c>
       <c r="E118" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>491</v>
+      </c>
+      <c r="F118" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="E119" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>492</v>
+      </c>
+      <c r="F119" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="E120" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>493</v>
+      </c>
+      <c r="F120" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
       <c r="E121" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>494</v>
+      </c>
+      <c r="F121" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="E122" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>495</v>
+      </c>
+      <c r="F122" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="E123" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>496</v>
+      </c>
+      <c r="F123" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="E124" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>497</v>
+      </c>
+      <c r="F124" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="E125" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>498</v>
+      </c>
+      <c r="F125" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>362</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>499</v>
+      </c>
+      <c r="F126" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>363</v>
+        <v>67</v>
       </c>
       <c r="E127" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>500</v>
+      </c>
+      <c r="F127" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="E128" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>501</v>
+      </c>
+      <c r="F128" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="E129" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>502</v>
+      </c>
+      <c r="F129" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E130" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>503</v>
+      </c>
+      <c r="F130" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="E131" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>504</v>
+      </c>
+      <c r="F131" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="E132" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>505</v>
+      </c>
+      <c r="F132" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="E133" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>506</v>
+      </c>
+      <c r="F133" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="E134" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>465</v>
+      </c>
+      <c r="F134" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>40</v>
+        <v>409</v>
       </c>
       <c r="E135" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>507</v>
+      </c>
+      <c r="F135" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="E136" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>508</v>
+      </c>
+      <c r="F136" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="E137" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>509</v>
+      </c>
+      <c r="F137" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E138" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>458</v>
+      </c>
+      <c r="F138" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>371</v>
+        <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>510</v>
+      </c>
+      <c r="F139" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="E140" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>511</v>
+      </c>
+      <c r="F140" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="E141" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>512</v>
+      </c>
+      <c r="F141" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="E142" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>513</v>
+      </c>
+      <c r="F142" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="E143" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>514</v>
+      </c>
+      <c r="F143" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="E144" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>515</v>
+      </c>
+      <c r="F144" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="E145" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>516</v>
+      </c>
+      <c r="F145" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="E146" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>517</v>
+      </c>
+      <c r="F146" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="E147" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>518</v>
+      </c>
+      <c r="F147" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="E148" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>519</v>
+      </c>
+      <c r="F148" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="E149" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>520</v>
+      </c>
+      <c r="F149" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="E150" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>521</v>
+      </c>
+      <c r="F150" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="E151" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>522</v>
+      </c>
+      <c r="F151" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>384</v>
+        <v>47</v>
       </c>
       <c r="E152" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>523</v>
+      </c>
+      <c r="F152" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153" t="s">
+        <v>328</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E153" t="s">
+        <v>524</v>
+      </c>
+      <c r="F153" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" t="s">
+        <v>329</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>525</v>
+      </c>
+      <c r="F154" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155" t="s">
+        <v>330</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E155" t="s">
+        <v>526</v>
+      </c>
+      <c r="F155" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" t="s">
+        <v>331</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E156" t="s">
+        <v>527</v>
+      </c>
+      <c r="F156" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="C153" t="s">
-        <v>307</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E153" t="s">
-        <v>472</v>
+      <c r="B157" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" t="s">
+        <v>332</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E157" t="s">
+        <v>528</v>
+      </c>
+      <c r="F157" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158" t="s">
+        <v>333</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E158" t="s">
+        <v>529</v>
+      </c>
+      <c r="F158" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159" t="s">
+        <v>334</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E159" t="s">
+        <v>530</v>
+      </c>
+      <c r="F159" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160" t="s">
+        <v>335</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E160" t="s">
+        <v>531</v>
+      </c>
+      <c r="F160" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161" t="s">
+        <v>336</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E161" t="s">
+        <v>532</v>
+      </c>
+      <c r="F161" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162" t="s">
+        <v>337</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E162" t="s">
+        <v>533</v>
+      </c>
+      <c r="F162" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163" t="s">
+        <v>338</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E163" t="s">
+        <v>534</v>
+      </c>
+      <c r="F163" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164" t="s">
+        <v>339</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E164" t="s">
+        <v>535</v>
+      </c>
+      <c r="F164" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" t="s">
+        <v>340</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E165" t="s">
+        <v>536</v>
+      </c>
+      <c r="F165" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" t="s">
+        <v>341</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E166" t="s">
+        <v>537</v>
+      </c>
+      <c r="F166" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167" t="s">
+        <v>342</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E167" t="s">
+        <v>538</v>
+      </c>
+      <c r="F167" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C168" t="s">
+        <v>343</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E168" t="s">
+        <v>539</v>
+      </c>
+      <c r="F168" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169" t="s">
+        <v>344</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E169" t="s">
+        <v>540</v>
+      </c>
+      <c r="F169" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170" t="s">
+        <v>345</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E170" t="s">
+        <v>541</v>
+      </c>
+      <c r="F170" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171" t="s">
+        <v>346</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E171" t="s">
+        <v>542</v>
+      </c>
+      <c r="F171" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172" t="s">
+        <v>347</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E172" t="s">
+        <v>543</v>
+      </c>
+      <c r="F172" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" t="s">
+        <v>348</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E173" t="s">
+        <v>544</v>
+      </c>
+      <c r="F173" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4543,7 +5675,7 @@
     <hyperlink ref="D67" r:id="rId132"/>
     <hyperlink ref="B68" r:id="rId133"/>
     <hyperlink ref="D68" r:id="rId134"/>
-    <hyperlink ref="B69" r:id="rId135" location="BAO_0002929"/>
+    <hyperlink ref="B69" r:id="rId135" location="BAO_0000269"/>
     <hyperlink ref="D69" r:id="rId136"/>
     <hyperlink ref="B70" r:id="rId137"/>
     <hyperlink ref="D70" r:id="rId138"/>
@@ -4555,164 +5687,204 @@
     <hyperlink ref="D73" r:id="rId144"/>
     <hyperlink ref="B74" r:id="rId145"/>
     <hyperlink ref="D74" r:id="rId146"/>
-    <hyperlink ref="B75" r:id="rId147"/>
+    <hyperlink ref="B75" r:id="rId147" location="BAO_0003116"/>
     <hyperlink ref="D75" r:id="rId148"/>
-    <hyperlink ref="B76" r:id="rId149" location="BAO_0003117"/>
+    <hyperlink ref="B76" r:id="rId149" location="BAO_0002929"/>
     <hyperlink ref="D76" r:id="rId150"/>
     <hyperlink ref="B77" r:id="rId151"/>
     <hyperlink ref="D77" r:id="rId152"/>
-    <hyperlink ref="B78" r:id="rId153" location="BAO_0002928"/>
+    <hyperlink ref="B78" r:id="rId153"/>
     <hyperlink ref="D78" r:id="rId154"/>
     <hyperlink ref="B79" r:id="rId155"/>
     <hyperlink ref="D79" r:id="rId156"/>
-    <hyperlink ref="B80" r:id="rId157" location="BAO_0000011"/>
+    <hyperlink ref="B80" r:id="rId157"/>
     <hyperlink ref="D80" r:id="rId158"/>
-    <hyperlink ref="B81" r:id="rId159" location="BAO_0003043"/>
+    <hyperlink ref="B81" r:id="rId159"/>
     <hyperlink ref="D81" r:id="rId160"/>
-    <hyperlink ref="B82" r:id="rId161" location="BAO_0003116"/>
+    <hyperlink ref="B82" r:id="rId161"/>
     <hyperlink ref="D82" r:id="rId162"/>
-    <hyperlink ref="B83" r:id="rId163" location="BAO_0000587"/>
+    <hyperlink ref="B83" r:id="rId163"/>
     <hyperlink ref="D83" r:id="rId164"/>
-    <hyperlink ref="B84" r:id="rId165" location="BAO_0000175"/>
+    <hyperlink ref="B84" r:id="rId165"/>
     <hyperlink ref="D84" r:id="rId166"/>
-    <hyperlink ref="B85" r:id="rId167" location="BAO_0000450"/>
+    <hyperlink ref="B85" r:id="rId167"/>
     <hyperlink ref="D85" r:id="rId168"/>
-    <hyperlink ref="B86" r:id="rId169" location="BAO_0002989"/>
+    <hyperlink ref="B86" r:id="rId169"/>
     <hyperlink ref="D86" r:id="rId170"/>
-    <hyperlink ref="B87" r:id="rId171" location="BAO_0000114"/>
+    <hyperlink ref="B87" r:id="rId171"/>
     <hyperlink ref="D87" r:id="rId172"/>
-    <hyperlink ref="B88" r:id="rId173" location="BAO_0000134"/>
+    <hyperlink ref="B88" r:id="rId173" location="BAO_0003117"/>
     <hyperlink ref="D88" r:id="rId174"/>
-    <hyperlink ref="B89" r:id="rId175" location="BAO_0000325"/>
+    <hyperlink ref="B89" r:id="rId175"/>
     <hyperlink ref="D89" r:id="rId176"/>
-    <hyperlink ref="B90" r:id="rId177" location="BAO_0190000"/>
+    <hyperlink ref="B90" r:id="rId177" location="BAO_0002928"/>
     <hyperlink ref="D90" r:id="rId178"/>
-    <hyperlink ref="B91" r:id="rId179" location="BAO_0000248"/>
+    <hyperlink ref="B91" r:id="rId179"/>
     <hyperlink ref="D91" r:id="rId180"/>
-    <hyperlink ref="B92" r:id="rId181" location="BAO_0000551"/>
+    <hyperlink ref="B92" r:id="rId181"/>
     <hyperlink ref="D92" r:id="rId182"/>
-    <hyperlink ref="B93" r:id="rId183" location="BAO_0000558"/>
+    <hyperlink ref="B93" r:id="rId183"/>
     <hyperlink ref="D93" r:id="rId184"/>
-    <hyperlink ref="B94" r:id="rId185" location="BAO_0000279"/>
+    <hyperlink ref="B94" r:id="rId185" location="BAO_0000011"/>
     <hyperlink ref="D94" r:id="rId186"/>
-    <hyperlink ref="B95" r:id="rId187" location="BAO_0000322"/>
+    <hyperlink ref="B95" r:id="rId187" location="BAO_0003043"/>
     <hyperlink ref="D95" r:id="rId188"/>
-    <hyperlink ref="B96" r:id="rId189" location="BAO_0000415"/>
+    <hyperlink ref="B96" r:id="rId189" location="BAO_0003064"/>
     <hyperlink ref="D96" r:id="rId190"/>
-    <hyperlink ref="B97" r:id="rId191" location="BAO_0000416"/>
+    <hyperlink ref="B97" r:id="rId191" location="BAO_0000175"/>
     <hyperlink ref="D97" r:id="rId192"/>
-    <hyperlink ref="B98" r:id="rId193" location="BAO_0000451"/>
+    <hyperlink ref="B98" r:id="rId193" location="BAO_0000450"/>
     <hyperlink ref="D98" r:id="rId194"/>
-    <hyperlink ref="B99" r:id="rId195" location="BAO_0000659"/>
+    <hyperlink ref="B99" r:id="rId195" location="BAO_0000088"/>
     <hyperlink ref="D99" r:id="rId196"/>
-    <hyperlink ref="B100" r:id="rId197" location="BAO_0000577"/>
+    <hyperlink ref="B100" r:id="rId197" location="BAO_0002989"/>
     <hyperlink ref="D100" r:id="rId198"/>
-    <hyperlink ref="B101" r:id="rId199" location="BAO_0190002"/>
+    <hyperlink ref="B101" r:id="rId199" location="BAO_0000134"/>
     <hyperlink ref="D101" r:id="rId200"/>
-    <hyperlink ref="B102" r:id="rId201" location="BAO_0000694"/>
+    <hyperlink ref="B102" r:id="rId201" location="BAO_0000325"/>
     <hyperlink ref="D102" r:id="rId202"/>
-    <hyperlink ref="B103" r:id="rId203" location="BAO_0002934"/>
+    <hyperlink ref="B103" r:id="rId203" location="BAO_0190000"/>
     <hyperlink ref="D103" r:id="rId204"/>
-    <hyperlink ref="B104" r:id="rId205" location="BAO_0000779"/>
+    <hyperlink ref="B104" r:id="rId205" location="BAO_0000248"/>
     <hyperlink ref="D104" r:id="rId206"/>
-    <hyperlink ref="B105" r:id="rId207" location="BAO_0000913"/>
+    <hyperlink ref="B105" r:id="rId207" location="BAO_0000551"/>
     <hyperlink ref="D105" r:id="rId208"/>
-    <hyperlink ref="B106" r:id="rId209" location="BAO_0000924"/>
+    <hyperlink ref="B106" r:id="rId209" location="BAO_0000270"/>
     <hyperlink ref="D106" r:id="rId210"/>
-    <hyperlink ref="B107" r:id="rId211" location="BAO_0002038"/>
+    <hyperlink ref="B107" r:id="rId211" location="BAO_0000558"/>
     <hyperlink ref="D107" r:id="rId212"/>
-    <hyperlink ref="B108" r:id="rId213" location="BAO_0002080"/>
+    <hyperlink ref="B108" r:id="rId213" location="BAO_0000582"/>
     <hyperlink ref="D108" r:id="rId214"/>
-    <hyperlink ref="B109" r:id="rId215" location="BAO_0190003"/>
+    <hyperlink ref="B109" r:id="rId215" location="BAO_0000279"/>
     <hyperlink ref="D109" r:id="rId216"/>
-    <hyperlink ref="B110" r:id="rId217" location="BAO_0002173"/>
+    <hyperlink ref="B110" r:id="rId217" location="BAO_0000315"/>
     <hyperlink ref="D110" r:id="rId218"/>
-    <hyperlink ref="B111" r:id="rId219" location="BAO_0002231"/>
+    <hyperlink ref="B111" r:id="rId219" location="BAO_0000322"/>
     <hyperlink ref="D111" r:id="rId220"/>
-    <hyperlink ref="B112" r:id="rId221" location="BAO_0002338"/>
+    <hyperlink ref="B112" r:id="rId221" location="BAO_0000415"/>
     <hyperlink ref="D112" r:id="rId222"/>
-    <hyperlink ref="B113" r:id="rId223" location="BAO_0002361"/>
+    <hyperlink ref="B113" r:id="rId223" location="BAO_0000416"/>
     <hyperlink ref="D113" r:id="rId224"/>
-    <hyperlink ref="B114" r:id="rId225" location="BAO_0002432"/>
+    <hyperlink ref="B114" r:id="rId225" location="BAO_0000451"/>
     <hyperlink ref="D114" r:id="rId226"/>
-    <hyperlink ref="B115" r:id="rId227" location="BAO_0002433"/>
+    <hyperlink ref="B115" r:id="rId227" location="BAO_0000514"/>
     <hyperlink ref="D115" r:id="rId228"/>
-    <hyperlink ref="B116" r:id="rId229" location="BAO_0002508"/>
+    <hyperlink ref="B116" r:id="rId229" location="BAO_0000659"/>
     <hyperlink ref="D116" r:id="rId230"/>
-    <hyperlink ref="B117" r:id="rId231" location="BAO_0003006"/>
+    <hyperlink ref="B117" r:id="rId231" location="BAO_0000577"/>
     <hyperlink ref="D117" r:id="rId232"/>
-    <hyperlink ref="B118" r:id="rId233" location="BAO_0002805"/>
+    <hyperlink ref="B118" r:id="rId233" location="BAO_0190002"/>
     <hyperlink ref="D118" r:id="rId234"/>
-    <hyperlink ref="B119" r:id="rId235" location="BAO_0002908"/>
+    <hyperlink ref="B119" r:id="rId235" location="BAO_0000652"/>
     <hyperlink ref="D119" r:id="rId236"/>
-    <hyperlink ref="B120" r:id="rId237" location="BAO_0002927"/>
+    <hyperlink ref="B120" r:id="rId237" location="BAO_0000694"/>
     <hyperlink ref="D120" r:id="rId238"/>
-    <hyperlink ref="B121" r:id="rId239" location="BAO_0002931"/>
+    <hyperlink ref="B121" r:id="rId239" location="BAO_0002934"/>
     <hyperlink ref="D121" r:id="rId240"/>
-    <hyperlink ref="B122" r:id="rId241" location="BAO_0003011"/>
+    <hyperlink ref="B122" r:id="rId241" location="BAO_0000779"/>
     <hyperlink ref="D122" r:id="rId242"/>
-    <hyperlink ref="B123" r:id="rId243" location="BAO_0003070"/>
+    <hyperlink ref="B123" r:id="rId243" location="BAO_0000913"/>
     <hyperlink ref="D123" r:id="rId244"/>
-    <hyperlink ref="B124" r:id="rId245" location="BAO_0003119"/>
+    <hyperlink ref="B124" r:id="rId245" location="BAO_0000924"/>
     <hyperlink ref="D124" r:id="rId246"/>
-    <hyperlink ref="B125" r:id="rId247" location="BAO_0010015"/>
+    <hyperlink ref="B125" r:id="rId247" location="BAO_0001260"/>
     <hyperlink ref="D125" r:id="rId248"/>
-    <hyperlink ref="B126" r:id="rId249" location="BAO_0010020"/>
+    <hyperlink ref="B126" r:id="rId249" location="BAO_0002038"/>
     <hyperlink ref="D126" r:id="rId250"/>
-    <hyperlink ref="B127" r:id="rId251" location="BAO_0010035"/>
+    <hyperlink ref="B127" r:id="rId251" location="BAO_0190003"/>
     <hyperlink ref="D127" r:id="rId252"/>
-    <hyperlink ref="B128" r:id="rId253" location="BAO_0010037"/>
+    <hyperlink ref="B128" r:id="rId253" location="BAO_0002172"/>
     <hyperlink ref="D128" r:id="rId254"/>
-    <hyperlink ref="B129" r:id="rId255" location="BAO_0010048"/>
+    <hyperlink ref="B129" r:id="rId255" location="BAO_0002173"/>
     <hyperlink ref="D129" r:id="rId256"/>
-    <hyperlink ref="B130" r:id="rId257" location="BAO_0150010"/>
+    <hyperlink ref="B130" r:id="rId257" location="BAO_0002174"/>
     <hyperlink ref="D130" r:id="rId258"/>
-    <hyperlink ref="B131" r:id="rId259" location="BAO_0100012"/>
+    <hyperlink ref="B131" r:id="rId259" location="BAO_0002231"/>
     <hyperlink ref="D131" r:id="rId260"/>
-    <hyperlink ref="B132" r:id="rId261" location="BAO_0120000"/>
+    <hyperlink ref="B132" r:id="rId261" location="BAO_0002433"/>
     <hyperlink ref="D132" r:id="rId262"/>
-    <hyperlink ref="B133" r:id="rId263" location="BAO_0120001"/>
+    <hyperlink ref="B133" r:id="rId263" location="BAO_0002508"/>
     <hyperlink ref="D133" r:id="rId264"/>
-    <hyperlink ref="B134" r:id="rId265" location="BAO_0120002"/>
+    <hyperlink ref="B134" r:id="rId265" location="BAO_0190001"/>
     <hyperlink ref="D134" r:id="rId266"/>
-    <hyperlink ref="B135" r:id="rId267" location="BAO_0120003"/>
+    <hyperlink ref="B135" r:id="rId267" location="BAO_0003006"/>
     <hyperlink ref="D135" r:id="rId268"/>
-    <hyperlink ref="B136" r:id="rId269" location="BAO_0150008"/>
+    <hyperlink ref="B136" r:id="rId269" location="BAO_0002805"/>
     <hyperlink ref="D136" r:id="rId270"/>
-    <hyperlink ref="B137" r:id="rId271" location="BAO_0150009"/>
+    <hyperlink ref="B137" r:id="rId271" location="BAO_0002908"/>
     <hyperlink ref="D137" r:id="rId272"/>
-    <hyperlink ref="B138" r:id="rId273" location="BAO_0150011"/>
+    <hyperlink ref="B138" r:id="rId273" location="BAO_0002927"/>
     <hyperlink ref="D138" r:id="rId274"/>
-    <hyperlink ref="B139" r:id="rId275" location="BAO_0150012"/>
+    <hyperlink ref="B139" r:id="rId275" location="BAO_0002931"/>
     <hyperlink ref="D139" r:id="rId276"/>
-    <hyperlink ref="B140" r:id="rId277" location="BAO_0150013"/>
+    <hyperlink ref="B140" r:id="rId277" location="BAO_0040042"/>
     <hyperlink ref="D140" r:id="rId278"/>
-    <hyperlink ref="B141" r:id="rId279" location="BAO_0150014"/>
+    <hyperlink ref="B141" r:id="rId279" location="BAO_0003009"/>
     <hyperlink ref="D141" r:id="rId280"/>
-    <hyperlink ref="B142" r:id="rId281" location="BAO_0150027"/>
+    <hyperlink ref="B142" r:id="rId281" location="BAO_0003011"/>
     <hyperlink ref="D142" r:id="rId282"/>
-    <hyperlink ref="B143" r:id="rId283" location="BAO_0150028"/>
+    <hyperlink ref="B143" r:id="rId283" location="BAO_0003070"/>
     <hyperlink ref="D143" r:id="rId284"/>
-    <hyperlink ref="B144" r:id="rId285" location="BAO_0150029"/>
+    <hyperlink ref="B144" r:id="rId285" location="BAO_0003073"/>
     <hyperlink ref="D144" r:id="rId286"/>
-    <hyperlink ref="B145" r:id="rId287" location="BAO_0150030"/>
+    <hyperlink ref="B145" r:id="rId287" location="BAO_0003119"/>
     <hyperlink ref="D145" r:id="rId288"/>
-    <hyperlink ref="B146" r:id="rId289" location="BAO_0150033"/>
+    <hyperlink ref="B146" r:id="rId289" location="BAO_0010015"/>
     <hyperlink ref="D146" r:id="rId290"/>
-    <hyperlink ref="B147" r:id="rId291" location="BAO_0150034"/>
+    <hyperlink ref="B147" r:id="rId291" location="BAO_0010035"/>
     <hyperlink ref="D147" r:id="rId292"/>
-    <hyperlink ref="B148" r:id="rId293" location="BAO_0150035"/>
+    <hyperlink ref="B148" r:id="rId293" location="BAO_0010037"/>
     <hyperlink ref="D148" r:id="rId294"/>
-    <hyperlink ref="B149" r:id="rId295" location="BAO_0150036"/>
+    <hyperlink ref="B149" r:id="rId295" location="BAO_0010048"/>
     <hyperlink ref="D149" r:id="rId296"/>
-    <hyperlink ref="B150" r:id="rId297" location="BAO_0150037"/>
+    <hyperlink ref="B150" r:id="rId297" location="BAO_0150010"/>
     <hyperlink ref="D150" r:id="rId298"/>
-    <hyperlink ref="B151" r:id="rId299" location="BAO_0150041"/>
+    <hyperlink ref="B151" r:id="rId299" location="BAO_0100012"/>
     <hyperlink ref="D151" r:id="rId300"/>
-    <hyperlink ref="B152" r:id="rId301" location="BAO_0150042"/>
+    <hyperlink ref="B152" r:id="rId301" location="BAO_0120000"/>
     <hyperlink ref="D152" r:id="rId302"/>
-    <hyperlink ref="B153" r:id="rId303" location="BAO_0150045"/>
+    <hyperlink ref="B153" r:id="rId303" location="BAO_0120001"/>
     <hyperlink ref="D153" r:id="rId304"/>
+    <hyperlink ref="B154" r:id="rId305" location="BAO_0120002"/>
+    <hyperlink ref="D154" r:id="rId306"/>
+    <hyperlink ref="B155" r:id="rId307" location="BAO_0120003"/>
+    <hyperlink ref="D155" r:id="rId308"/>
+    <hyperlink ref="B156" r:id="rId309" location="BAO_0150008"/>
+    <hyperlink ref="D156" r:id="rId310"/>
+    <hyperlink ref="B157" r:id="rId311" location="BAO_0150009"/>
+    <hyperlink ref="D157" r:id="rId312"/>
+    <hyperlink ref="B158" r:id="rId313" location="BAO_0150011"/>
+    <hyperlink ref="D158" r:id="rId314"/>
+    <hyperlink ref="B159" r:id="rId315" location="BAO_0150012"/>
+    <hyperlink ref="D159" r:id="rId316"/>
+    <hyperlink ref="B160" r:id="rId317" location="BAO_0150013"/>
+    <hyperlink ref="D160" r:id="rId318"/>
+    <hyperlink ref="B161" r:id="rId319" location="BAO_0150014"/>
+    <hyperlink ref="D161" r:id="rId320"/>
+    <hyperlink ref="B162" r:id="rId321" location="BAO_0150027"/>
+    <hyperlink ref="D162" r:id="rId322"/>
+    <hyperlink ref="B163" r:id="rId323" location="BAO_0150028"/>
+    <hyperlink ref="D163" r:id="rId324"/>
+    <hyperlink ref="B164" r:id="rId325" location="BAO_0150029"/>
+    <hyperlink ref="D164" r:id="rId326"/>
+    <hyperlink ref="B165" r:id="rId327" location="BAO_0150030"/>
+    <hyperlink ref="D165" r:id="rId328"/>
+    <hyperlink ref="B166" r:id="rId329" location="BAO_0150033"/>
+    <hyperlink ref="D166" r:id="rId330"/>
+    <hyperlink ref="B167" r:id="rId331" location="BAO_0150034"/>
+    <hyperlink ref="D167" r:id="rId332"/>
+    <hyperlink ref="B168" r:id="rId333" location="BAO_0150035"/>
+    <hyperlink ref="D168" r:id="rId334"/>
+    <hyperlink ref="B169" r:id="rId335" location="BAO_0150036"/>
+    <hyperlink ref="D169" r:id="rId336"/>
+    <hyperlink ref="B170" r:id="rId337" location="BAO_0150037"/>
+    <hyperlink ref="D170" r:id="rId338"/>
+    <hyperlink ref="B171" r:id="rId339" location="BAO_0150041"/>
+    <hyperlink ref="D171" r:id="rId340"/>
+    <hyperlink ref="B172" r:id="rId341" location="BAO_0150042"/>
+    <hyperlink ref="D172" r:id="rId342"/>
+    <hyperlink ref="B173" r:id="rId343" location="BAO_0150045"/>
+    <hyperlink ref="D173" r:id="rId344"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
